--- a/BKNG.xlsx
+++ b/BKNG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC20497-88C7-4774-804F-54718B882DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14FF033-ECE3-4C5A-A10E-38084968FA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{539750FB-9DBA-4D91-BC72-49504E9AE5F3}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{539750FB-9DBA-4D91-BC72-49504E9AE5F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>BKNG</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>EPS</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -568,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43108807-2CCF-439B-85AA-3DEE17EF6021}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>4834.24</v>
+        <v>5668.04</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -598,10 +610,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="3">
-        <v>33.096713000000001</v>
+        <v>32.540337999999998</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -613,7 +625,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>159997.45385312001</v>
+        <v>184439.93739752</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -624,10 +636,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <v>15775</v>
+        <v>15578</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -635,11 +647,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="3">
-        <f>2419+13793</f>
-        <v>16212</v>
+        <f>655+15369</f>
+        <v>16024</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -648,7 +660,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>160434.45385312001</v>
+        <v>184885.93739752</v>
       </c>
     </row>
   </sheetData>
@@ -658,13 +670,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3787E4AE-2EB0-492A-BBEF-D4CAFDBF10EA}">
-  <dimension ref="A1:AJ162"/>
+  <dimension ref="A1:AN162"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,12 +685,12 @@
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
@@ -703,30 +715,42 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="L2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -736,13 +760,17 @@
         <v>3945</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>2388</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3">
         <v>4972</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3">
+        <v>2918</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -768,8 +796,12 @@
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -779,13 +811,17 @@
         <v>3135</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>1763</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
         <v>2753</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>1564</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -811,8 +847,12 @@
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -822,13 +862,17 @@
         <v>261</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>264</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
         <v>269</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>280</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -854,8 +898,12 @@
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
@@ -877,7 +925,7 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4415</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
@@ -888,13 +936,16 @@
         <v>7994</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" ref="J6" si="1">+SUM(J3:J5)</f>
+        <f t="shared" ref="J6:K6" si="1">+SUM(J3:J5)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="K6" s="6">
+        <f t="shared" si="1"/>
+        <v>4762</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -917,8 +968,12 @@
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -928,13 +983,17 @@
         <v>2022</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>1610</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3">
         <v>2151</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>1777</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -960,8 +1019,12 @@
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -971,13 +1034,17 @@
         <v>807</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>678</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3">
         <v>872</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3">
+        <v>702</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1003,8 +1070,12 @@
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -1014,13 +1085,17 @@
         <v>788</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>826</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3">
         <v>868</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>693</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1046,8 +1121,12 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -1057,13 +1136,17 @@
         <v>305</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>186</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3">
         <v>575</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3">
+        <v>142</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1089,8 +1172,12 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>34</v>
       </c>
@@ -1100,13 +1187,17 @@
         <v>187</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>187</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3">
         <v>194</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3">
+        <v>200</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1132,8 +1223,12 @@
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>35</v>
       </c>
@@ -1143,13 +1238,18 @@
         <v>129</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <v>137</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
         <v>155</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <f>154+32</f>
+        <v>186</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1175,8 +1275,12 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -1198,7 +1302,7 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>791</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="2"/>
@@ -1209,10 +1313,13 @@
         <v>3179</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" ref="J13" si="3">+J6-SUM(J7:J12)</f>
+        <f t="shared" ref="J13:K13" si="3">+J6-SUM(J7:J12)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <f t="shared" si="3"/>
+        <v>1062</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1238,8 +1345,12 @@
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -1249,13 +1360,17 @@
         <v>254</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>219</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3">
         <v>305</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <v>649</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1281,8 +1396,12 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -1292,13 +1411,17 @@
         <v>289</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3">
+        <v>243</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
         <v>327</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3">
+        <v>241</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1324,8 +1447,12 @@
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -1335,13 +1462,17 @@
         <v>11</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3">
+        <v>122</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3">
         <v>-332</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <v>-258</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1367,8 +1498,12 @@
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
-    </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+    </row>
+    <row r="17" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>40</v>
       </c>
@@ -1385,12 +1520,12 @@
         <v>3149</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" ref="F17:J17" si="5">+F13-F14+F15+F16</f>
+        <f t="shared" ref="F17:K17" si="5">+F13-F14+F15+F16</f>
         <v>0</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>937</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="5"/>
@@ -1404,7 +1539,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <f t="shared" si="5"/>
+        <v>396</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1430,8 +1568,12 @@
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
-    </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+    </row>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>41</v>
       </c>
@@ -1441,13 +1583,17 @@
         <v>638</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3">
+        <v>161</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
         <v>352</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3">
+        <v>63</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1473,8 +1619,12 @@
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
-    </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+    </row>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>42</v>
       </c>
@@ -1496,7 +1646,7 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="6"/>
@@ -1507,10 +1657,13 @@
         <v>2517</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" ref="J19" si="7">+J17-J18</f>
+        <f t="shared" ref="J19:K19" si="7">+J17-J18</f>
         <v>0</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <f t="shared" si="7"/>
+        <v>333</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -1536,8 +1689,12 @@
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
-    </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1572,8 +1729,12 @@
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
-    </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1590,12 +1751,12 @@
         <v>69.775196598771771</v>
       </c>
       <c r="F21" s="3" t="e">
-        <f t="shared" ref="F21:J21" si="9">+F19/F22</f>
+        <f t="shared" ref="F21:K21" si="9">+F19/F22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="3" t="e">
+      <c r="G21" s="3">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>22.686078465766236</v>
       </c>
       <c r="H21" s="3" t="e">
         <f t="shared" si="9"/>
@@ -1609,7 +1770,10 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3">
+        <f t="shared" si="9"/>
+        <v>10.062550992657057</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -1635,8 +1799,12 @@
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
-    </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -1646,13 +1814,17 @@
         <v>35.987000000000002</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <v>34.206000000000003</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3">
         <v>33.863999999999997</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3">
+        <v>33.093000000000004</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -1678,8 +1850,12 @@
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
-    </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1714,8 +1890,12 @@
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
-    </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1750,8 +1930,12 @@
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
-    </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1786,8 +1970,12 @@
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
-    </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+    </row>
+    <row r="26" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1822,8 +2010,12 @@
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
-    </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+    </row>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1858,8 +2050,12 @@
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
-    </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+    </row>
+    <row r="28" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1894,8 +2090,12 @@
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
-    </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1930,8 +2130,12 @@
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
-    </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1966,8 +2170,12 @@
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
-    </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2002,8 +2210,12 @@
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
-    </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2038,8 +2250,12 @@
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
-    </row>
-    <row r="33" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+    </row>
+    <row r="33" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2074,8 +2290,12 @@
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
-    </row>
-    <row r="34" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+    </row>
+    <row r="34" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2110,8 +2330,12 @@
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
-    </row>
-    <row r="35" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+    </row>
+    <row r="35" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2146,8 +2370,12 @@
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
-    </row>
-    <row r="36" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+    </row>
+    <row r="36" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2182,8 +2410,12 @@
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
-    </row>
-    <row r="37" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+    </row>
+    <row r="37" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2218,8 +2450,12 @@
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
-    </row>
-    <row r="38" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+    </row>
+    <row r="38" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2254,8 +2490,12 @@
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
-    </row>
-    <row r="39" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+    </row>
+    <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2290,8 +2530,12 @@
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
-    </row>
-    <row r="40" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+    </row>
+    <row r="40" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2326,8 +2570,12 @@
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
-    </row>
-    <row r="41" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+    </row>
+    <row r="41" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2362,8 +2610,12 @@
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
-    </row>
-    <row r="42" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+    </row>
+    <row r="42" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2398,8 +2650,12 @@
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
-    </row>
-    <row r="43" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+    </row>
+    <row r="43" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2434,8 +2690,12 @@
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
-    </row>
-    <row r="44" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+    </row>
+    <row r="44" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2470,8 +2730,12 @@
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
-    </row>
-    <row r="45" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+    </row>
+    <row r="45" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2506,8 +2770,12 @@
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
-    </row>
-    <row r="46" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+    </row>
+    <row r="46" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2542,8 +2810,12 @@
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
-    </row>
-    <row r="47" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3"/>
+      <c r="AM46" s="3"/>
+      <c r="AN46" s="3"/>
+    </row>
+    <row r="47" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2578,8 +2850,12 @@
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
-    </row>
-    <row r="48" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+    </row>
+    <row r="48" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2614,8 +2890,12 @@
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
-    </row>
-    <row r="49" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+    </row>
+    <row r="49" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2650,8 +2930,12 @@
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
-    </row>
-    <row r="50" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+    </row>
+    <row r="50" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2686,8 +2970,12 @@
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
-    </row>
-    <row r="51" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3"/>
+      <c r="AM50" s="3"/>
+      <c r="AN50" s="3"/>
+    </row>
+    <row r="51" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2722,8 +3010,12 @@
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
-    </row>
-    <row r="52" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK51" s="3"/>
+      <c r="AL51" s="3"/>
+      <c r="AM51" s="3"/>
+      <c r="AN51" s="3"/>
+    </row>
+    <row r="52" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2758,8 +3050,12 @@
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
       <c r="AJ52" s="3"/>
-    </row>
-    <row r="53" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="3"/>
+      <c r="AM52" s="3"/>
+      <c r="AN52" s="3"/>
+    </row>
+    <row r="53" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2794,8 +3090,12 @@
       <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
       <c r="AJ53" s="3"/>
-    </row>
-    <row r="54" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3"/>
+      <c r="AM53" s="3"/>
+      <c r="AN53" s="3"/>
+    </row>
+    <row r="54" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2830,8 +3130,12 @@
       <c r="AH54" s="3"/>
       <c r="AI54" s="3"/>
       <c r="AJ54" s="3"/>
-    </row>
-    <row r="55" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK54" s="3"/>
+      <c r="AL54" s="3"/>
+      <c r="AM54" s="3"/>
+      <c r="AN54" s="3"/>
+    </row>
+    <row r="55" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2866,8 +3170,12 @@
       <c r="AH55" s="3"/>
       <c r="AI55" s="3"/>
       <c r="AJ55" s="3"/>
-    </row>
-    <row r="56" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK55" s="3"/>
+      <c r="AL55" s="3"/>
+      <c r="AM55" s="3"/>
+      <c r="AN55" s="3"/>
+    </row>
+    <row r="56" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2902,8 +3210,12 @@
       <c r="AH56" s="3"/>
       <c r="AI56" s="3"/>
       <c r="AJ56" s="3"/>
-    </row>
-    <row r="57" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK56" s="3"/>
+      <c r="AL56" s="3"/>
+      <c r="AM56" s="3"/>
+      <c r="AN56" s="3"/>
+    </row>
+    <row r="57" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2938,8 +3250,12 @@
       <c r="AH57" s="3"/>
       <c r="AI57" s="3"/>
       <c r="AJ57" s="3"/>
-    </row>
-    <row r="58" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK57" s="3"/>
+      <c r="AL57" s="3"/>
+      <c r="AM57" s="3"/>
+      <c r="AN57" s="3"/>
+    </row>
+    <row r="58" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2974,8 +3290,12 @@
       <c r="AH58" s="3"/>
       <c r="AI58" s="3"/>
       <c r="AJ58" s="3"/>
-    </row>
-    <row r="59" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK58" s="3"/>
+      <c r="AL58" s="3"/>
+      <c r="AM58" s="3"/>
+      <c r="AN58" s="3"/>
+    </row>
+    <row r="59" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3010,8 +3330,12 @@
       <c r="AH59" s="3"/>
       <c r="AI59" s="3"/>
       <c r="AJ59" s="3"/>
-    </row>
-    <row r="60" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK59" s="3"/>
+      <c r="AL59" s="3"/>
+      <c r="AM59" s="3"/>
+      <c r="AN59" s="3"/>
+    </row>
+    <row r="60" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3046,8 +3370,12 @@
       <c r="AH60" s="3"/>
       <c r="AI60" s="3"/>
       <c r="AJ60" s="3"/>
-    </row>
-    <row r="61" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK60" s="3"/>
+      <c r="AL60" s="3"/>
+      <c r="AM60" s="3"/>
+      <c r="AN60" s="3"/>
+    </row>
+    <row r="61" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3082,8 +3410,12 @@
       <c r="AH61" s="3"/>
       <c r="AI61" s="3"/>
       <c r="AJ61" s="3"/>
-    </row>
-    <row r="62" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK61" s="3"/>
+      <c r="AL61" s="3"/>
+      <c r="AM61" s="3"/>
+      <c r="AN61" s="3"/>
+    </row>
+    <row r="62" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3118,8 +3450,12 @@
       <c r="AH62" s="3"/>
       <c r="AI62" s="3"/>
       <c r="AJ62" s="3"/>
-    </row>
-    <row r="63" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK62" s="3"/>
+      <c r="AL62" s="3"/>
+      <c r="AM62" s="3"/>
+      <c r="AN62" s="3"/>
+    </row>
+    <row r="63" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3154,8 +3490,12 @@
       <c r="AH63" s="3"/>
       <c r="AI63" s="3"/>
       <c r="AJ63" s="3"/>
-    </row>
-    <row r="64" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK63" s="3"/>
+      <c r="AL63" s="3"/>
+      <c r="AM63" s="3"/>
+      <c r="AN63" s="3"/>
+    </row>
+    <row r="64" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3190,8 +3530,12 @@
       <c r="AH64" s="3"/>
       <c r="AI64" s="3"/>
       <c r="AJ64" s="3"/>
-    </row>
-    <row r="65" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK64" s="3"/>
+      <c r="AL64" s="3"/>
+      <c r="AM64" s="3"/>
+      <c r="AN64" s="3"/>
+    </row>
+    <row r="65" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3226,8 +3570,12 @@
       <c r="AH65" s="3"/>
       <c r="AI65" s="3"/>
       <c r="AJ65" s="3"/>
-    </row>
-    <row r="66" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK65" s="3"/>
+      <c r="AL65" s="3"/>
+      <c r="AM65" s="3"/>
+      <c r="AN65" s="3"/>
+    </row>
+    <row r="66" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3262,8 +3610,12 @@
       <c r="AH66" s="3"/>
       <c r="AI66" s="3"/>
       <c r="AJ66" s="3"/>
-    </row>
-    <row r="67" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK66" s="3"/>
+      <c r="AL66" s="3"/>
+      <c r="AM66" s="3"/>
+      <c r="AN66" s="3"/>
+    </row>
+    <row r="67" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3298,8 +3650,12 @@
       <c r="AH67" s="3"/>
       <c r="AI67" s="3"/>
       <c r="AJ67" s="3"/>
-    </row>
-    <row r="68" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK67" s="3"/>
+      <c r="AL67" s="3"/>
+      <c r="AM67" s="3"/>
+      <c r="AN67" s="3"/>
+    </row>
+    <row r="68" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3334,8 +3690,12 @@
       <c r="AH68" s="3"/>
       <c r="AI68" s="3"/>
       <c r="AJ68" s="3"/>
-    </row>
-    <row r="69" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK68" s="3"/>
+      <c r="AL68" s="3"/>
+      <c r="AM68" s="3"/>
+      <c r="AN68" s="3"/>
+    </row>
+    <row r="69" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3370,8 +3730,12 @@
       <c r="AH69" s="3"/>
       <c r="AI69" s="3"/>
       <c r="AJ69" s="3"/>
-    </row>
-    <row r="70" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK69" s="3"/>
+      <c r="AL69" s="3"/>
+      <c r="AM69" s="3"/>
+      <c r="AN69" s="3"/>
+    </row>
+    <row r="70" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3406,8 +3770,12 @@
       <c r="AH70" s="3"/>
       <c r="AI70" s="3"/>
       <c r="AJ70" s="3"/>
-    </row>
-    <row r="71" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK70" s="3"/>
+      <c r="AL70" s="3"/>
+      <c r="AM70" s="3"/>
+      <c r="AN70" s="3"/>
+    </row>
+    <row r="71" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3442,8 +3810,12 @@
       <c r="AH71" s="3"/>
       <c r="AI71" s="3"/>
       <c r="AJ71" s="3"/>
-    </row>
-    <row r="72" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK71" s="3"/>
+      <c r="AL71" s="3"/>
+      <c r="AM71" s="3"/>
+      <c r="AN71" s="3"/>
+    </row>
+    <row r="72" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3478,8 +3850,12 @@
       <c r="AH72" s="3"/>
       <c r="AI72" s="3"/>
       <c r="AJ72" s="3"/>
-    </row>
-    <row r="73" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK72" s="3"/>
+      <c r="AL72" s="3"/>
+      <c r="AM72" s="3"/>
+      <c r="AN72" s="3"/>
+    </row>
+    <row r="73" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3514,8 +3890,12 @@
       <c r="AH73" s="3"/>
       <c r="AI73" s="3"/>
       <c r="AJ73" s="3"/>
-    </row>
-    <row r="74" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK73" s="3"/>
+      <c r="AL73" s="3"/>
+      <c r="AM73" s="3"/>
+      <c r="AN73" s="3"/>
+    </row>
+    <row r="74" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3550,8 +3930,12 @@
       <c r="AH74" s="3"/>
       <c r="AI74" s="3"/>
       <c r="AJ74" s="3"/>
-    </row>
-    <row r="75" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK74" s="3"/>
+      <c r="AL74" s="3"/>
+      <c r="AM74" s="3"/>
+      <c r="AN74" s="3"/>
+    </row>
+    <row r="75" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3586,8 +3970,12 @@
       <c r="AH75" s="3"/>
       <c r="AI75" s="3"/>
       <c r="AJ75" s="3"/>
-    </row>
-    <row r="76" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK75" s="3"/>
+      <c r="AL75" s="3"/>
+      <c r="AM75" s="3"/>
+      <c r="AN75" s="3"/>
+    </row>
+    <row r="76" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3622,8 +4010,12 @@
       <c r="AH76" s="3"/>
       <c r="AI76" s="3"/>
       <c r="AJ76" s="3"/>
-    </row>
-    <row r="77" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK76" s="3"/>
+      <c r="AL76" s="3"/>
+      <c r="AM76" s="3"/>
+      <c r="AN76" s="3"/>
+    </row>
+    <row r="77" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3658,8 +4050,12 @@
       <c r="AH77" s="3"/>
       <c r="AI77" s="3"/>
       <c r="AJ77" s="3"/>
-    </row>
-    <row r="78" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK77" s="3"/>
+      <c r="AL77" s="3"/>
+      <c r="AM77" s="3"/>
+      <c r="AN77" s="3"/>
+    </row>
+    <row r="78" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -3694,8 +4090,12 @@
       <c r="AH78" s="3"/>
       <c r="AI78" s="3"/>
       <c r="AJ78" s="3"/>
-    </row>
-    <row r="79" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK78" s="3"/>
+      <c r="AL78" s="3"/>
+      <c r="AM78" s="3"/>
+      <c r="AN78" s="3"/>
+    </row>
+    <row r="79" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3730,8 +4130,12 @@
       <c r="AH79" s="3"/>
       <c r="AI79" s="3"/>
       <c r="AJ79" s="3"/>
-    </row>
-    <row r="80" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK79" s="3"/>
+      <c r="AL79" s="3"/>
+      <c r="AM79" s="3"/>
+      <c r="AN79" s="3"/>
+    </row>
+    <row r="80" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3766,8 +4170,12 @@
       <c r="AH80" s="3"/>
       <c r="AI80" s="3"/>
       <c r="AJ80" s="3"/>
-    </row>
-    <row r="81" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK80" s="3"/>
+      <c r="AL80" s="3"/>
+      <c r="AM80" s="3"/>
+      <c r="AN80" s="3"/>
+    </row>
+    <row r="81" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3802,8 +4210,12 @@
       <c r="AH81" s="3"/>
       <c r="AI81" s="3"/>
       <c r="AJ81" s="3"/>
-    </row>
-    <row r="82" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK81" s="3"/>
+      <c r="AL81" s="3"/>
+      <c r="AM81" s="3"/>
+      <c r="AN81" s="3"/>
+    </row>
+    <row r="82" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3838,8 +4250,12 @@
       <c r="AH82" s="3"/>
       <c r="AI82" s="3"/>
       <c r="AJ82" s="3"/>
-    </row>
-    <row r="83" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK82" s="3"/>
+      <c r="AL82" s="3"/>
+      <c r="AM82" s="3"/>
+      <c r="AN82" s="3"/>
+    </row>
+    <row r="83" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -3874,8 +4290,12 @@
       <c r="AH83" s="3"/>
       <c r="AI83" s="3"/>
       <c r="AJ83" s="3"/>
-    </row>
-    <row r="84" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK83" s="3"/>
+      <c r="AL83" s="3"/>
+      <c r="AM83" s="3"/>
+      <c r="AN83" s="3"/>
+    </row>
+    <row r="84" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3910,8 +4330,12 @@
       <c r="AH84" s="3"/>
       <c r="AI84" s="3"/>
       <c r="AJ84" s="3"/>
-    </row>
-    <row r="85" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK84" s="3"/>
+      <c r="AL84" s="3"/>
+      <c r="AM84" s="3"/>
+      <c r="AN84" s="3"/>
+    </row>
+    <row r="85" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -3946,8 +4370,12 @@
       <c r="AH85" s="3"/>
       <c r="AI85" s="3"/>
       <c r="AJ85" s="3"/>
-    </row>
-    <row r="86" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK85" s="3"/>
+      <c r="AL85" s="3"/>
+      <c r="AM85" s="3"/>
+      <c r="AN85" s="3"/>
+    </row>
+    <row r="86" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -3982,8 +4410,12 @@
       <c r="AH86" s="3"/>
       <c r="AI86" s="3"/>
       <c r="AJ86" s="3"/>
-    </row>
-    <row r="87" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK86" s="3"/>
+      <c r="AL86" s="3"/>
+      <c r="AM86" s="3"/>
+      <c r="AN86" s="3"/>
+    </row>
+    <row r="87" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -4018,8 +4450,12 @@
       <c r="AH87" s="3"/>
       <c r="AI87" s="3"/>
       <c r="AJ87" s="3"/>
-    </row>
-    <row r="88" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK87" s="3"/>
+      <c r="AL87" s="3"/>
+      <c r="AM87" s="3"/>
+      <c r="AN87" s="3"/>
+    </row>
+    <row r="88" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -4054,8 +4490,12 @@
       <c r="AH88" s="3"/>
       <c r="AI88" s="3"/>
       <c r="AJ88" s="3"/>
-    </row>
-    <row r="89" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK88" s="3"/>
+      <c r="AL88" s="3"/>
+      <c r="AM88" s="3"/>
+      <c r="AN88" s="3"/>
+    </row>
+    <row r="89" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -4090,8 +4530,12 @@
       <c r="AH89" s="3"/>
       <c r="AI89" s="3"/>
       <c r="AJ89" s="3"/>
-    </row>
-    <row r="90" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK89" s="3"/>
+      <c r="AL89" s="3"/>
+      <c r="AM89" s="3"/>
+      <c r="AN89" s="3"/>
+    </row>
+    <row r="90" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -4126,8 +4570,12 @@
       <c r="AH90" s="3"/>
       <c r="AI90" s="3"/>
       <c r="AJ90" s="3"/>
-    </row>
-    <row r="91" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK90" s="3"/>
+      <c r="AL90" s="3"/>
+      <c r="AM90" s="3"/>
+      <c r="AN90" s="3"/>
+    </row>
+    <row r="91" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -4162,8 +4610,12 @@
       <c r="AH91" s="3"/>
       <c r="AI91" s="3"/>
       <c r="AJ91" s="3"/>
-    </row>
-    <row r="92" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK91" s="3"/>
+      <c r="AL91" s="3"/>
+      <c r="AM91" s="3"/>
+      <c r="AN91" s="3"/>
+    </row>
+    <row r="92" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -4198,8 +4650,12 @@
       <c r="AH92" s="3"/>
       <c r="AI92" s="3"/>
       <c r="AJ92" s="3"/>
-    </row>
-    <row r="93" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK92" s="3"/>
+      <c r="AL92" s="3"/>
+      <c r="AM92" s="3"/>
+      <c r="AN92" s="3"/>
+    </row>
+    <row r="93" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4234,8 +4690,12 @@
       <c r="AH93" s="3"/>
       <c r="AI93" s="3"/>
       <c r="AJ93" s="3"/>
-    </row>
-    <row r="94" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK93" s="3"/>
+      <c r="AL93" s="3"/>
+      <c r="AM93" s="3"/>
+      <c r="AN93" s="3"/>
+    </row>
+    <row r="94" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4270,8 +4730,12 @@
       <c r="AH94" s="3"/>
       <c r="AI94" s="3"/>
       <c r="AJ94" s="3"/>
-    </row>
-    <row r="95" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK94" s="3"/>
+      <c r="AL94" s="3"/>
+      <c r="AM94" s="3"/>
+      <c r="AN94" s="3"/>
+    </row>
+    <row r="95" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4306,8 +4770,12 @@
       <c r="AH95" s="3"/>
       <c r="AI95" s="3"/>
       <c r="AJ95" s="3"/>
-    </row>
-    <row r="96" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK95" s="3"/>
+      <c r="AL95" s="3"/>
+      <c r="AM95" s="3"/>
+      <c r="AN95" s="3"/>
+    </row>
+    <row r="96" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -4342,8 +4810,12 @@
       <c r="AH96" s="3"/>
       <c r="AI96" s="3"/>
       <c r="AJ96" s="3"/>
-    </row>
-    <row r="97" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK96" s="3"/>
+      <c r="AL96" s="3"/>
+      <c r="AM96" s="3"/>
+      <c r="AN96" s="3"/>
+    </row>
+    <row r="97" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -4378,8 +4850,12 @@
       <c r="AH97" s="3"/>
       <c r="AI97" s="3"/>
       <c r="AJ97" s="3"/>
-    </row>
-    <row r="98" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK97" s="3"/>
+      <c r="AL97" s="3"/>
+      <c r="AM97" s="3"/>
+      <c r="AN97" s="3"/>
+    </row>
+    <row r="98" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -4414,8 +4890,12 @@
       <c r="AH98" s="3"/>
       <c r="AI98" s="3"/>
       <c r="AJ98" s="3"/>
-    </row>
-    <row r="99" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK98" s="3"/>
+      <c r="AL98" s="3"/>
+      <c r="AM98" s="3"/>
+      <c r="AN98" s="3"/>
+    </row>
+    <row r="99" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -4450,8 +4930,12 @@
       <c r="AH99" s="3"/>
       <c r="AI99" s="3"/>
       <c r="AJ99" s="3"/>
-    </row>
-    <row r="100" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK99" s="3"/>
+      <c r="AL99" s="3"/>
+      <c r="AM99" s="3"/>
+      <c r="AN99" s="3"/>
+    </row>
+    <row r="100" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -4486,8 +4970,12 @@
       <c r="AH100" s="3"/>
       <c r="AI100" s="3"/>
       <c r="AJ100" s="3"/>
-    </row>
-    <row r="101" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK100" s="3"/>
+      <c r="AL100" s="3"/>
+      <c r="AM100" s="3"/>
+      <c r="AN100" s="3"/>
+    </row>
+    <row r="101" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -4522,8 +5010,12 @@
       <c r="AH101" s="3"/>
       <c r="AI101" s="3"/>
       <c r="AJ101" s="3"/>
-    </row>
-    <row r="102" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK101" s="3"/>
+      <c r="AL101" s="3"/>
+      <c r="AM101" s="3"/>
+      <c r="AN101" s="3"/>
+    </row>
+    <row r="102" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -4558,8 +5050,12 @@
       <c r="AH102" s="3"/>
       <c r="AI102" s="3"/>
       <c r="AJ102" s="3"/>
-    </row>
-    <row r="103" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK102" s="3"/>
+      <c r="AL102" s="3"/>
+      <c r="AM102" s="3"/>
+      <c r="AN102" s="3"/>
+    </row>
+    <row r="103" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -4594,8 +5090,12 @@
       <c r="AH103" s="3"/>
       <c r="AI103" s="3"/>
       <c r="AJ103" s="3"/>
-    </row>
-    <row r="104" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK103" s="3"/>
+      <c r="AL103" s="3"/>
+      <c r="AM103" s="3"/>
+      <c r="AN103" s="3"/>
+    </row>
+    <row r="104" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -4630,8 +5130,12 @@
       <c r="AH104" s="3"/>
       <c r="AI104" s="3"/>
       <c r="AJ104" s="3"/>
-    </row>
-    <row r="105" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK104" s="3"/>
+      <c r="AL104" s="3"/>
+      <c r="AM104" s="3"/>
+      <c r="AN104" s="3"/>
+    </row>
+    <row r="105" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -4666,8 +5170,12 @@
       <c r="AH105" s="3"/>
       <c r="AI105" s="3"/>
       <c r="AJ105" s="3"/>
-    </row>
-    <row r="106" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK105" s="3"/>
+      <c r="AL105" s="3"/>
+      <c r="AM105" s="3"/>
+      <c r="AN105" s="3"/>
+    </row>
+    <row r="106" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4702,8 +5210,12 @@
       <c r="AH106" s="3"/>
       <c r="AI106" s="3"/>
       <c r="AJ106" s="3"/>
-    </row>
-    <row r="107" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK106" s="3"/>
+      <c r="AL106" s="3"/>
+      <c r="AM106" s="3"/>
+      <c r="AN106" s="3"/>
+    </row>
+    <row r="107" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4738,8 +5250,12 @@
       <c r="AH107" s="3"/>
       <c r="AI107" s="3"/>
       <c r="AJ107" s="3"/>
-    </row>
-    <row r="108" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK107" s="3"/>
+      <c r="AL107" s="3"/>
+      <c r="AM107" s="3"/>
+      <c r="AN107" s="3"/>
+    </row>
+    <row r="108" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4774,8 +5290,12 @@
       <c r="AH108" s="3"/>
       <c r="AI108" s="3"/>
       <c r="AJ108" s="3"/>
-    </row>
-    <row r="109" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK108" s="3"/>
+      <c r="AL108" s="3"/>
+      <c r="AM108" s="3"/>
+      <c r="AN108" s="3"/>
+    </row>
+    <row r="109" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4810,8 +5330,12 @@
       <c r="AH109" s="3"/>
       <c r="AI109" s="3"/>
       <c r="AJ109" s="3"/>
-    </row>
-    <row r="110" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK109" s="3"/>
+      <c r="AL109" s="3"/>
+      <c r="AM109" s="3"/>
+      <c r="AN109" s="3"/>
+    </row>
+    <row r="110" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -4846,8 +5370,12 @@
       <c r="AH110" s="3"/>
       <c r="AI110" s="3"/>
       <c r="AJ110" s="3"/>
-    </row>
-    <row r="111" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK110" s="3"/>
+      <c r="AL110" s="3"/>
+      <c r="AM110" s="3"/>
+      <c r="AN110" s="3"/>
+    </row>
+    <row r="111" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -4882,8 +5410,12 @@
       <c r="AH111" s="3"/>
       <c r="AI111" s="3"/>
       <c r="AJ111" s="3"/>
-    </row>
-    <row r="112" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK111" s="3"/>
+      <c r="AL111" s="3"/>
+      <c r="AM111" s="3"/>
+      <c r="AN111" s="3"/>
+    </row>
+    <row r="112" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -4918,8 +5450,12 @@
       <c r="AH112" s="3"/>
       <c r="AI112" s="3"/>
       <c r="AJ112" s="3"/>
-    </row>
-    <row r="113" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK112" s="3"/>
+      <c r="AL112" s="3"/>
+      <c r="AM112" s="3"/>
+      <c r="AN112" s="3"/>
+    </row>
+    <row r="113" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -4954,8 +5490,12 @@
       <c r="AH113" s="3"/>
       <c r="AI113" s="3"/>
       <c r="AJ113" s="3"/>
-    </row>
-    <row r="114" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK113" s="3"/>
+      <c r="AL113" s="3"/>
+      <c r="AM113" s="3"/>
+      <c r="AN113" s="3"/>
+    </row>
+    <row r="114" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -4990,8 +5530,12 @@
       <c r="AH114" s="3"/>
       <c r="AI114" s="3"/>
       <c r="AJ114" s="3"/>
-    </row>
-    <row r="115" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK114" s="3"/>
+      <c r="AL114" s="3"/>
+      <c r="AM114" s="3"/>
+      <c r="AN114" s="3"/>
+    </row>
+    <row r="115" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -5026,8 +5570,12 @@
       <c r="AH115" s="3"/>
       <c r="AI115" s="3"/>
       <c r="AJ115" s="3"/>
-    </row>
-    <row r="116" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK115" s="3"/>
+      <c r="AL115" s="3"/>
+      <c r="AM115" s="3"/>
+      <c r="AN115" s="3"/>
+    </row>
+    <row r="116" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -5062,8 +5610,12 @@
       <c r="AH116" s="3"/>
       <c r="AI116" s="3"/>
       <c r="AJ116" s="3"/>
-    </row>
-    <row r="117" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK116" s="3"/>
+      <c r="AL116" s="3"/>
+      <c r="AM116" s="3"/>
+      <c r="AN116" s="3"/>
+    </row>
+    <row r="117" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -5098,8 +5650,12 @@
       <c r="AH117" s="3"/>
       <c r="AI117" s="3"/>
       <c r="AJ117" s="3"/>
-    </row>
-    <row r="118" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK117" s="3"/>
+      <c r="AL117" s="3"/>
+      <c r="AM117" s="3"/>
+      <c r="AN117" s="3"/>
+    </row>
+    <row r="118" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -5134,8 +5690,12 @@
       <c r="AH118" s="3"/>
       <c r="AI118" s="3"/>
       <c r="AJ118" s="3"/>
-    </row>
-    <row r="119" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK118" s="3"/>
+      <c r="AL118" s="3"/>
+      <c r="AM118" s="3"/>
+      <c r="AN118" s="3"/>
+    </row>
+    <row r="119" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -5170,8 +5730,12 @@
       <c r="AH119" s="3"/>
       <c r="AI119" s="3"/>
       <c r="AJ119" s="3"/>
-    </row>
-    <row r="120" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK119" s="3"/>
+      <c r="AL119" s="3"/>
+      <c r="AM119" s="3"/>
+      <c r="AN119" s="3"/>
+    </row>
+    <row r="120" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -5206,8 +5770,12 @@
       <c r="AH120" s="3"/>
       <c r="AI120" s="3"/>
       <c r="AJ120" s="3"/>
-    </row>
-    <row r="121" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK120" s="3"/>
+      <c r="AL120" s="3"/>
+      <c r="AM120" s="3"/>
+      <c r="AN120" s="3"/>
+    </row>
+    <row r="121" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -5242,8 +5810,12 @@
       <c r="AH121" s="3"/>
       <c r="AI121" s="3"/>
       <c r="AJ121" s="3"/>
-    </row>
-    <row r="122" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK121" s="3"/>
+      <c r="AL121" s="3"/>
+      <c r="AM121" s="3"/>
+      <c r="AN121" s="3"/>
+    </row>
+    <row r="122" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -5278,8 +5850,12 @@
       <c r="AH122" s="3"/>
       <c r="AI122" s="3"/>
       <c r="AJ122" s="3"/>
-    </row>
-    <row r="123" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK122" s="3"/>
+      <c r="AL122" s="3"/>
+      <c r="AM122" s="3"/>
+      <c r="AN122" s="3"/>
+    </row>
+    <row r="123" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -5314,8 +5890,12 @@
       <c r="AH123" s="3"/>
       <c r="AI123" s="3"/>
       <c r="AJ123" s="3"/>
-    </row>
-    <row r="124" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK123" s="3"/>
+      <c r="AL123" s="3"/>
+      <c r="AM123" s="3"/>
+      <c r="AN123" s="3"/>
+    </row>
+    <row r="124" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -5350,8 +5930,12 @@
       <c r="AH124" s="3"/>
       <c r="AI124" s="3"/>
       <c r="AJ124" s="3"/>
-    </row>
-    <row r="125" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK124" s="3"/>
+      <c r="AL124" s="3"/>
+      <c r="AM124" s="3"/>
+      <c r="AN124" s="3"/>
+    </row>
+    <row r="125" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -5386,8 +5970,12 @@
       <c r="AH125" s="3"/>
       <c r="AI125" s="3"/>
       <c r="AJ125" s="3"/>
-    </row>
-    <row r="126" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK125" s="3"/>
+      <c r="AL125" s="3"/>
+      <c r="AM125" s="3"/>
+      <c r="AN125" s="3"/>
+    </row>
+    <row r="126" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -5422,8 +6010,12 @@
       <c r="AH126" s="3"/>
       <c r="AI126" s="3"/>
       <c r="AJ126" s="3"/>
-    </row>
-    <row r="127" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK126" s="3"/>
+      <c r="AL126" s="3"/>
+      <c r="AM126" s="3"/>
+      <c r="AN126" s="3"/>
+    </row>
+    <row r="127" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -5458,8 +6050,12 @@
       <c r="AH127" s="3"/>
       <c r="AI127" s="3"/>
       <c r="AJ127" s="3"/>
-    </row>
-    <row r="128" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK127" s="3"/>
+      <c r="AL127" s="3"/>
+      <c r="AM127" s="3"/>
+      <c r="AN127" s="3"/>
+    </row>
+    <row r="128" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -5494,8 +6090,12 @@
       <c r="AH128" s="3"/>
       <c r="AI128" s="3"/>
       <c r="AJ128" s="3"/>
-    </row>
-    <row r="129" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK128" s="3"/>
+      <c r="AL128" s="3"/>
+      <c r="AM128" s="3"/>
+      <c r="AN128" s="3"/>
+    </row>
+    <row r="129" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -5530,8 +6130,12 @@
       <c r="AH129" s="3"/>
       <c r="AI129" s="3"/>
       <c r="AJ129" s="3"/>
-    </row>
-    <row r="130" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK129" s="3"/>
+      <c r="AL129" s="3"/>
+      <c r="AM129" s="3"/>
+      <c r="AN129" s="3"/>
+    </row>
+    <row r="130" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -5566,8 +6170,12 @@
       <c r="AH130" s="3"/>
       <c r="AI130" s="3"/>
       <c r="AJ130" s="3"/>
-    </row>
-    <row r="131" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK130" s="3"/>
+      <c r="AL130" s="3"/>
+      <c r="AM130" s="3"/>
+      <c r="AN130" s="3"/>
+    </row>
+    <row r="131" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -5602,8 +6210,12 @@
       <c r="AH131" s="3"/>
       <c r="AI131" s="3"/>
       <c r="AJ131" s="3"/>
-    </row>
-    <row r="132" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK131" s="3"/>
+      <c r="AL131" s="3"/>
+      <c r="AM131" s="3"/>
+      <c r="AN131" s="3"/>
+    </row>
+    <row r="132" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -5638,8 +6250,12 @@
       <c r="AH132" s="3"/>
       <c r="AI132" s="3"/>
       <c r="AJ132" s="3"/>
-    </row>
-    <row r="133" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK132" s="3"/>
+      <c r="AL132" s="3"/>
+      <c r="AM132" s="3"/>
+      <c r="AN132" s="3"/>
+    </row>
+    <row r="133" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -5674,8 +6290,12 @@
       <c r="AH133" s="3"/>
       <c r="AI133" s="3"/>
       <c r="AJ133" s="3"/>
-    </row>
-    <row r="134" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK133" s="3"/>
+      <c r="AL133" s="3"/>
+      <c r="AM133" s="3"/>
+      <c r="AN133" s="3"/>
+    </row>
+    <row r="134" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -5710,8 +6330,12 @@
       <c r="AH134" s="3"/>
       <c r="AI134" s="3"/>
       <c r="AJ134" s="3"/>
-    </row>
-    <row r="135" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK134" s="3"/>
+      <c r="AL134" s="3"/>
+      <c r="AM134" s="3"/>
+      <c r="AN134" s="3"/>
+    </row>
+    <row r="135" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -5746,8 +6370,12 @@
       <c r="AH135" s="3"/>
       <c r="AI135" s="3"/>
       <c r="AJ135" s="3"/>
-    </row>
-    <row r="136" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK135" s="3"/>
+      <c r="AL135" s="3"/>
+      <c r="AM135" s="3"/>
+      <c r="AN135" s="3"/>
+    </row>
+    <row r="136" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -5782,8 +6410,12 @@
       <c r="AH136" s="3"/>
       <c r="AI136" s="3"/>
       <c r="AJ136" s="3"/>
-    </row>
-    <row r="137" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK136" s="3"/>
+      <c r="AL136" s="3"/>
+      <c r="AM136" s="3"/>
+      <c r="AN136" s="3"/>
+    </row>
+    <row r="137" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -5818,8 +6450,12 @@
       <c r="AH137" s="3"/>
       <c r="AI137" s="3"/>
       <c r="AJ137" s="3"/>
-    </row>
-    <row r="138" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK137" s="3"/>
+      <c r="AL137" s="3"/>
+      <c r="AM137" s="3"/>
+      <c r="AN137" s="3"/>
+    </row>
+    <row r="138" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -5854,8 +6490,12 @@
       <c r="AH138" s="3"/>
       <c r="AI138" s="3"/>
       <c r="AJ138" s="3"/>
-    </row>
-    <row r="139" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK138" s="3"/>
+      <c r="AL138" s="3"/>
+      <c r="AM138" s="3"/>
+      <c r="AN138" s="3"/>
+    </row>
+    <row r="139" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -5890,8 +6530,12 @@
       <c r="AH139" s="3"/>
       <c r="AI139" s="3"/>
       <c r="AJ139" s="3"/>
-    </row>
-    <row r="140" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK139" s="3"/>
+      <c r="AL139" s="3"/>
+      <c r="AM139" s="3"/>
+      <c r="AN139" s="3"/>
+    </row>
+    <row r="140" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -5926,8 +6570,12 @@
       <c r="AH140" s="3"/>
       <c r="AI140" s="3"/>
       <c r="AJ140" s="3"/>
-    </row>
-    <row r="141" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK140" s="3"/>
+      <c r="AL140" s="3"/>
+      <c r="AM140" s="3"/>
+      <c r="AN140" s="3"/>
+    </row>
+    <row r="141" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -5962,8 +6610,12 @@
       <c r="AH141" s="3"/>
       <c r="AI141" s="3"/>
       <c r="AJ141" s="3"/>
-    </row>
-    <row r="142" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK141" s="3"/>
+      <c r="AL141" s="3"/>
+      <c r="AM141" s="3"/>
+      <c r="AN141" s="3"/>
+    </row>
+    <row r="142" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -5998,8 +6650,12 @@
       <c r="AH142" s="3"/>
       <c r="AI142" s="3"/>
       <c r="AJ142" s="3"/>
-    </row>
-    <row r="143" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK142" s="3"/>
+      <c r="AL142" s="3"/>
+      <c r="AM142" s="3"/>
+      <c r="AN142" s="3"/>
+    </row>
+    <row r="143" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -6034,8 +6690,12 @@
       <c r="AH143" s="3"/>
       <c r="AI143" s="3"/>
       <c r="AJ143" s="3"/>
-    </row>
-    <row r="144" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK143" s="3"/>
+      <c r="AL143" s="3"/>
+      <c r="AM143" s="3"/>
+      <c r="AN143" s="3"/>
+    </row>
+    <row r="144" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -6070,8 +6730,12 @@
       <c r="AH144" s="3"/>
       <c r="AI144" s="3"/>
       <c r="AJ144" s="3"/>
-    </row>
-    <row r="145" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK144" s="3"/>
+      <c r="AL144" s="3"/>
+      <c r="AM144" s="3"/>
+      <c r="AN144" s="3"/>
+    </row>
+    <row r="145" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -6106,8 +6770,12 @@
       <c r="AH145" s="3"/>
       <c r="AI145" s="3"/>
       <c r="AJ145" s="3"/>
-    </row>
-    <row r="146" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK145" s="3"/>
+      <c r="AL145" s="3"/>
+      <c r="AM145" s="3"/>
+      <c r="AN145" s="3"/>
+    </row>
+    <row r="146" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -6142,8 +6810,12 @@
       <c r="AH146" s="3"/>
       <c r="AI146" s="3"/>
       <c r="AJ146" s="3"/>
-    </row>
-    <row r="147" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK146" s="3"/>
+      <c r="AL146" s="3"/>
+      <c r="AM146" s="3"/>
+      <c r="AN146" s="3"/>
+    </row>
+    <row r="147" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -6178,8 +6850,12 @@
       <c r="AH147" s="3"/>
       <c r="AI147" s="3"/>
       <c r="AJ147" s="3"/>
-    </row>
-    <row r="148" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK147" s="3"/>
+      <c r="AL147" s="3"/>
+      <c r="AM147" s="3"/>
+      <c r="AN147" s="3"/>
+    </row>
+    <row r="148" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -6214,8 +6890,12 @@
       <c r="AH148" s="3"/>
       <c r="AI148" s="3"/>
       <c r="AJ148" s="3"/>
-    </row>
-    <row r="149" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK148" s="3"/>
+      <c r="AL148" s="3"/>
+      <c r="AM148" s="3"/>
+      <c r="AN148" s="3"/>
+    </row>
+    <row r="149" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -6250,8 +6930,12 @@
       <c r="AH149" s="3"/>
       <c r="AI149" s="3"/>
       <c r="AJ149" s="3"/>
-    </row>
-    <row r="150" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK149" s="3"/>
+      <c r="AL149" s="3"/>
+      <c r="AM149" s="3"/>
+      <c r="AN149" s="3"/>
+    </row>
+    <row r="150" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -6286,8 +6970,12 @@
       <c r="AH150" s="3"/>
       <c r="AI150" s="3"/>
       <c r="AJ150" s="3"/>
-    </row>
-    <row r="151" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK150" s="3"/>
+      <c r="AL150" s="3"/>
+      <c r="AM150" s="3"/>
+      <c r="AN150" s="3"/>
+    </row>
+    <row r="151" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -6322,8 +7010,12 @@
       <c r="AH151" s="3"/>
       <c r="AI151" s="3"/>
       <c r="AJ151" s="3"/>
-    </row>
-    <row r="152" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK151" s="3"/>
+      <c r="AL151" s="3"/>
+      <c r="AM151" s="3"/>
+      <c r="AN151" s="3"/>
+    </row>
+    <row r="152" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -6358,8 +7050,12 @@
       <c r="AH152" s="3"/>
       <c r="AI152" s="3"/>
       <c r="AJ152" s="3"/>
-    </row>
-    <row r="153" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK152" s="3"/>
+      <c r="AL152" s="3"/>
+      <c r="AM152" s="3"/>
+      <c r="AN152" s="3"/>
+    </row>
+    <row r="153" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -6394,8 +7090,12 @@
       <c r="AH153" s="3"/>
       <c r="AI153" s="3"/>
       <c r="AJ153" s="3"/>
-    </row>
-    <row r="154" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK153" s="3"/>
+      <c r="AL153" s="3"/>
+      <c r="AM153" s="3"/>
+      <c r="AN153" s="3"/>
+    </row>
+    <row r="154" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -6430,8 +7130,12 @@
       <c r="AH154" s="3"/>
       <c r="AI154" s="3"/>
       <c r="AJ154" s="3"/>
-    </row>
-    <row r="155" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK154" s="3"/>
+      <c r="AL154" s="3"/>
+      <c r="AM154" s="3"/>
+      <c r="AN154" s="3"/>
+    </row>
+    <row r="155" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -6466,8 +7170,12 @@
       <c r="AH155" s="3"/>
       <c r="AI155" s="3"/>
       <c r="AJ155" s="3"/>
-    </row>
-    <row r="156" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK155" s="3"/>
+      <c r="AL155" s="3"/>
+      <c r="AM155" s="3"/>
+      <c r="AN155" s="3"/>
+    </row>
+    <row r="156" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -6502,8 +7210,12 @@
       <c r="AH156" s="3"/>
       <c r="AI156" s="3"/>
       <c r="AJ156" s="3"/>
-    </row>
-    <row r="157" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK156" s="3"/>
+      <c r="AL156" s="3"/>
+      <c r="AM156" s="3"/>
+      <c r="AN156" s="3"/>
+    </row>
+    <row r="157" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -6538,8 +7250,12 @@
       <c r="AH157" s="3"/>
       <c r="AI157" s="3"/>
       <c r="AJ157" s="3"/>
-    </row>
-    <row r="158" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK157" s="3"/>
+      <c r="AL157" s="3"/>
+      <c r="AM157" s="3"/>
+      <c r="AN157" s="3"/>
+    </row>
+    <row r="158" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -6574,8 +7290,12 @@
       <c r="AH158" s="3"/>
       <c r="AI158" s="3"/>
       <c r="AJ158" s="3"/>
-    </row>
-    <row r="159" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK158" s="3"/>
+      <c r="AL158" s="3"/>
+      <c r="AM158" s="3"/>
+      <c r="AN158" s="3"/>
+    </row>
+    <row r="159" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -6610,8 +7330,12 @@
       <c r="AH159" s="3"/>
       <c r="AI159" s="3"/>
       <c r="AJ159" s="3"/>
-    </row>
-    <row r="160" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK159" s="3"/>
+      <c r="AL159" s="3"/>
+      <c r="AM159" s="3"/>
+      <c r="AN159" s="3"/>
+    </row>
+    <row r="160" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -6646,8 +7370,12 @@
       <c r="AH160" s="3"/>
       <c r="AI160" s="3"/>
       <c r="AJ160" s="3"/>
-    </row>
-    <row r="161" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK160" s="3"/>
+      <c r="AL160" s="3"/>
+      <c r="AM160" s="3"/>
+      <c r="AN160" s="3"/>
+    </row>
+    <row r="161" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -6682,8 +7410,12 @@
       <c r="AH161" s="3"/>
       <c r="AI161" s="3"/>
       <c r="AJ161" s="3"/>
-    </row>
-    <row r="162" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK161" s="3"/>
+      <c r="AL161" s="3"/>
+      <c r="AM161" s="3"/>
+      <c r="AN161" s="3"/>
+    </row>
+    <row r="162" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -6718,6 +7450,10 @@
       <c r="AH162" s="3"/>
       <c r="AI162" s="3"/>
       <c r="AJ162" s="3"/>
+      <c r="AK162" s="3"/>
+      <c r="AL162" s="3"/>
+      <c r="AM162" s="3"/>
+      <c r="AN162" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/BKNG.xlsx
+++ b/BKNG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E532286D-2669-4D21-9CBE-7A640A880BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649193EA-E60B-4FAA-A4EB-F9F6F909C8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{539750FB-9DBA-4D91-BC72-49504E9AE5F3}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{539750FB-9DBA-4D91-BC72-49504E9AE5F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>BKNG</t>
   </si>
@@ -182,18 +182,36 @@
   <si>
     <t>Q425</t>
   </si>
+  <si>
+    <t>Room Nights (in mio)</t>
+  </si>
+  <si>
+    <t>Rental Card Days</t>
+  </si>
+  <si>
+    <t>Airline Tickets</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -243,19 +261,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -593,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43108807-2CCF-439B-85AA-3DEE17EF6021}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -616,7 +641,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="7">
-        <v>5668.04</v>
+        <v>5475.01</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -624,10 +649,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="4">
-        <v>32.540337999999998</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>44</v>
+        <v>32.409885000000003</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -639,7 +664,7 @@
       </c>
       <c r="I4" s="4">
         <f>+I2*I3</f>
-        <v>184439.93739752</v>
+        <v>177444.44447385002</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -650,10 +675,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="4">
-        <v>15578</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>44</v>
+        <v>17595</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -661,11 +686,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="4">
-        <f>655+15369</f>
-        <v>16024</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>44</v>
+        <f>999+17473</f>
+        <v>18472</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -674,7 +699,7 @@
       </c>
       <c r="I7" s="4">
         <f>+I4-I5+I6</f>
-        <v>184885.93739752</v>
+        <v>178321.44447385002</v>
       </c>
     </row>
   </sheetData>
@@ -684,13 +709,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3787E4AE-2EB0-492A-BBEF-D4CAFDBF10EA}">
-  <dimension ref="A1:AN162"/>
+  <dimension ref="A1:AN166"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -766,250 +791,156 @@
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4">
-        <v>3945</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
-        <v>2388</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4">
-        <v>4972</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4">
-        <v>2918</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
+      <c r="B3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3">
+        <v>274</v>
+      </c>
+      <c r="D3" s="3">
+        <v>268</v>
+      </c>
+      <c r="E3" s="3">
+        <v>276</v>
+      </c>
+      <c r="F3" s="3">
+        <v>231</v>
+      </c>
+      <c r="G3" s="3">
+        <v>297</v>
+      </c>
+      <c r="H3" s="3">
+        <v>287</v>
+      </c>
+      <c r="I3" s="3">
+        <v>299</v>
+      </c>
+      <c r="J3" s="3">
+        <v>261</v>
+      </c>
+      <c r="K3" s="3">
+        <v>319</v>
+      </c>
+      <c r="L3" s="3">
+        <v>309</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
-        <v>3135</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>1763</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
-        <v>2753</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
-        <v>1564</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
+      <c r="B4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>261</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>264</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
-        <v>269</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
-        <v>280</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
+      <c r="B5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>16</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="6">
-        <f t="shared" ref="C6:H6" si="0">+SUM(C3:C5)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="0"/>
-        <v>7341</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>4415</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <f>+SUM(I3:I5)</f>
-        <v>7994</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" ref="J6:K6" si="1">+SUM(J3:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" si="1"/>
-        <v>4762</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>2022</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>1610</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
-        <v>2151</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
-        <v>1777</v>
-      </c>
-      <c r="L7" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
+        <v>3945</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9">
+        <v>2388</v>
+      </c>
+      <c r="H7" s="9">
+        <v>3446</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4972</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9">
+        <v>2918</v>
+      </c>
+      <c r="L7" s="9">
+        <v>4457</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1041,26 +972,30 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>807</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>678</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
-        <v>872</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
-        <v>702</v>
-      </c>
-      <c r="L8" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
+        <v>3135</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9">
+        <v>1763</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2144</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2753</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9">
+        <v>1564</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2044</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1092,26 +1027,30 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
-        <v>788</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>826</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
-        <v>868</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
-        <v>693</v>
-      </c>
-      <c r="L9" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
+        <v>261</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
+        <v>264</v>
+      </c>
+      <c r="H9" s="9">
+        <v>269</v>
+      </c>
+      <c r="I9" s="9">
+        <v>269</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <v>280</v>
+      </c>
+      <c r="L9" s="9">
+        <v>297</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1142,29 +1081,51 @@
       <c r="AN9" s="4"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <v>305</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <v>186</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
-        <v>575</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
-        <v>142</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="10">
+        <f t="shared" ref="C10:H10" si="0">+SUM(C7:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>7341</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="0"/>
+        <v>4415</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="0"/>
+        <v>5859</v>
+      </c>
+      <c r="I10" s="10">
+        <f>+SUM(I7:I9)</f>
+        <v>7994</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" ref="J10:L10" si="1">+SUM(J7:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="1"/>
+        <v>4762</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="1"/>
+        <v>6798</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1194,26 +1155,30 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
-        <v>187</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
-        <v>187</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
-        <v>194</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4">
-        <v>200</v>
-      </c>
-      <c r="L11" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9">
+        <v>2022</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9">
+        <v>1610</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1939</v>
+      </c>
+      <c r="I11" s="9">
+        <v>2151</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9">
+        <v>1777</v>
+      </c>
+      <c r="L11" s="9">
+        <v>2139</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1245,27 +1210,30 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
-        <v>129</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
-        <v>137</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4">
-        <v>155</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4">
-        <f>154+32</f>
-        <v>186</v>
-      </c>
-      <c r="L12" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
+        <v>807</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9">
+        <v>678</v>
+      </c>
+      <c r="H12" s="9">
+        <v>820</v>
+      </c>
+      <c r="I12" s="9">
+        <v>872</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9">
+        <v>702</v>
+      </c>
+      <c r="L12" s="9">
+        <v>899</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1297,45 +1265,30 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" ref="C13:H13" si="2">+C6-SUM(C7:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="2"/>
-        <v>3103</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="2"/>
-        <v>791</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f>+I6-SUM(I7:I12)</f>
-        <v>3179</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" ref="J13:K13" si="3">+J6-SUM(J7:J12)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="3"/>
-        <v>1062</v>
-      </c>
-      <c r="L13" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
+        <v>788</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9">
+        <v>826</v>
+      </c>
+      <c r="H13" s="9">
+        <v>807</v>
+      </c>
+      <c r="I13" s="9">
+        <v>868</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9">
+        <v>693</v>
+      </c>
+      <c r="L13" s="9">
+        <v>896</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1367,26 +1320,30 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
-        <v>254</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
-        <v>219</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4">
+        <v>33</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
         <v>305</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4">
-        <v>649</v>
-      </c>
-      <c r="L14" s="4"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9">
+        <v>186</v>
+      </c>
+      <c r="H14" s="9">
+        <v>112</v>
+      </c>
+      <c r="I14" s="9">
+        <v>575</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9">
+        <v>142</v>
+      </c>
+      <c r="L14" s="9">
+        <v>199</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1418,26 +1375,30 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
-        <v>289</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <v>243</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
-        <v>327</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4">
-        <v>241</v>
-      </c>
-      <c r="L15" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
+        <v>187</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9">
+        <v>187</v>
+      </c>
+      <c r="H15" s="9">
+        <v>183</v>
+      </c>
+      <c r="I15" s="9">
+        <v>194</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9">
+        <v>200</v>
+      </c>
+      <c r="L15" s="9">
+        <v>219</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1469,26 +1430,32 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
-        <v>11</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
-        <v>122</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4">
-        <v>-332</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4">
-        <v>-258</v>
-      </c>
-      <c r="L16" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <v>129</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
+        <v>137</v>
+      </c>
+      <c r="H16" s="9">
+        <v>142</v>
+      </c>
+      <c r="I16" s="9">
+        <v>155</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9">
+        <f>154+32</f>
+        <v>186</v>
+      </c>
+      <c r="L16" s="11">
+        <f>158+38</f>
+        <v>196</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1520,45 +1487,48 @@
     </row>
     <row r="17" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" ref="C17:D17" si="4">+C13-C14+C15+C16</f>
+        <v>36</v>
+      </c>
+      <c r="C17" s="9">
+        <f t="shared" ref="C17:H17" si="2">+C10-SUM(C11:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="4">
-        <f t="shared" si="4"/>
+      <c r="D17" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17" s="4">
-        <f>+E13-E14+E15+E16</f>
-        <v>3149</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" ref="F17:K17" si="5">+F13-F14+F15+F16</f>
+      <c r="E17" s="9">
+        <f t="shared" si="2"/>
+        <v>3103</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" si="5"/>
-        <v>937</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="5"/>
+      <c r="G17" s="9">
+        <f t="shared" si="2"/>
+        <v>791</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="2"/>
+        <v>1856</v>
+      </c>
+      <c r="I17" s="9">
+        <f>+I10-SUM(I11:I16)</f>
+        <v>3179</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" ref="J17:L17" si="3">+J10-SUM(J11:J16)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="4">
-        <f t="shared" si="5"/>
-        <v>2869</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="5"/>
-        <v>396</v>
-      </c>
-      <c r="L17" s="4"/>
+      <c r="K17" s="9">
+        <f t="shared" si="3"/>
+        <v>1062</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" si="3"/>
+        <v>2250</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1590,26 +1560,30 @@
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4">
-        <v>638</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
-        <v>161</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4">
-        <v>352</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4">
-        <v>63</v>
-      </c>
-      <c r="L18" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
+        <v>254</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>219</v>
+      </c>
+      <c r="H18" s="9">
+        <v>264</v>
+      </c>
+      <c r="I18" s="9">
+        <v>305</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9">
+        <v>649</v>
+      </c>
+      <c r="L18" s="9">
+        <v>418</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1641,45 +1615,30 @@
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" ref="C19:H19" si="6">+C17-C18</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="6"/>
-        <v>2511</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="6"/>
-        <v>776</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f>+I17-I18</f>
-        <v>2517</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" ref="J19:K19" si="7">+J17-J18</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="7"/>
-        <v>333</v>
-      </c>
-      <c r="L19" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9">
+        <v>289</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9">
+        <v>243</v>
+      </c>
+      <c r="H19" s="9">
+        <v>293</v>
+      </c>
+      <c r="I19" s="9">
+        <v>327</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9">
+        <v>241</v>
+      </c>
+      <c r="L19" s="9">
+        <v>234</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1710,16 +1669,31 @@
       <c r="AN19" s="4"/>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9">
+        <v>122</v>
+      </c>
+      <c r="H20" s="9">
+        <v>37</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-332</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9">
+        <v>-258</v>
+      </c>
+      <c r="L20" s="9">
+        <v>-962</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1751,45 +1725,48 @@
     </row>
     <row r="21" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="4" t="e">
-        <f t="shared" ref="C21:D21" si="8">+C19/C22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="4">
-        <f>+E19/E22</f>
-        <v>69.775196598771771</v>
-      </c>
-      <c r="F21" s="4" t="e">
-        <f t="shared" ref="F21:K21" si="9">+F19/F22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="9"/>
-        <v>22.686078465766236</v>
-      </c>
-      <c r="H21" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="9"/>
-        <v>74.326718639262936</v>
-      </c>
-      <c r="J21" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="9"/>
-        <v>10.062550992657057</v>
-      </c>
-      <c r="L21" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" ref="C21:D21" si="4">+C17-C18+C19+C20</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <f>+E17-E18+E19+E20</f>
+        <v>3149</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" ref="F21:L21" si="5">+F17-F18+F19+F20</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="5"/>
+        <v>937</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="5"/>
+        <v>1922</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="5"/>
+        <v>2869</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="5"/>
+        <v>396</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="5"/>
+        <v>1104</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -1821,26 +1798,30 @@
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4">
-        <v>35.987000000000002</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
-        <v>34.206000000000003</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4">
-        <v>33.863999999999997</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4">
-        <v>33.093000000000004</v>
-      </c>
-      <c r="L22" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9">
+        <v>638</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9">
+        <v>161</v>
+      </c>
+      <c r="H22" s="9">
+        <v>401</v>
+      </c>
+      <c r="I22" s="9">
+        <v>352</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9">
+        <v>63</v>
+      </c>
+      <c r="L22" s="9">
+        <v>209</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -1871,16 +1852,49 @@
       <c r="AN22" s="4"/>
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" ref="C23:H23" si="6">+C21-C22</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="6"/>
+        <v>2511</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="6"/>
+        <v>776</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="6"/>
+        <v>1521</v>
+      </c>
+      <c r="I23" s="9">
+        <f>+I21-I22</f>
+        <v>2517</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" ref="J23:L23" si="7">+J21-J22</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="7"/>
+        <v>333</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="7"/>
+        <v>895</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -1951,16 +1965,49 @@
       <c r="AN24" s="4"/>
     </row>
     <row r="25" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="7" t="e">
+        <f t="shared" ref="C25:D25" si="8">+C23/C26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="7">
+        <f>+E23/E26</f>
+        <v>69.775196598771771</v>
+      </c>
+      <c r="F25" s="7" t="e">
+        <f t="shared" ref="F25:L25" si="9">+F23/F26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="9"/>
+        <v>22.686078465766236</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="9"/>
+        <v>44.386727755566575</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="9"/>
+        <v>74.326718639262936</v>
+      </c>
+      <c r="J25" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="9"/>
+        <v>10.062550992657057</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="9"/>
+        <v>27.543546500892472</v>
+      </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -1991,16 +2038,31 @@
       <c r="AN25" s="4"/>
     </row>
     <row r="26" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4">
+        <v>35.987000000000002</v>
+      </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="G26" s="4">
+        <v>34.206000000000003</v>
+      </c>
+      <c r="H26" s="4">
+        <v>34.267000000000003</v>
+      </c>
+      <c r="I26" s="4">
+        <v>33.863999999999997</v>
+      </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="K26" s="4">
+        <v>33.093000000000004</v>
+      </c>
+      <c r="L26" s="4">
+        <v>32.494</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -7470,6 +7532,166 @@
       <c r="AM162" s="4"/>
       <c r="AN162" s="4"/>
     </row>
+    <row r="163" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
+      <c r="K163" s="4"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="4"/>
+      <c r="P163" s="4"/>
+      <c r="Q163" s="4"/>
+      <c r="R163" s="4"/>
+      <c r="S163" s="4"/>
+      <c r="T163" s="4"/>
+      <c r="U163" s="4"/>
+      <c r="V163" s="4"/>
+      <c r="W163" s="4"/>
+      <c r="X163" s="4"/>
+      <c r="Y163" s="4"/>
+      <c r="Z163" s="4"/>
+      <c r="AA163" s="4"/>
+      <c r="AB163" s="4"/>
+      <c r="AC163" s="4"/>
+      <c r="AD163" s="4"/>
+      <c r="AE163" s="4"/>
+      <c r="AF163" s="4"/>
+      <c r="AG163" s="4"/>
+      <c r="AH163" s="4"/>
+      <c r="AI163" s="4"/>
+      <c r="AJ163" s="4"/>
+      <c r="AK163" s="4"/>
+      <c r="AL163" s="4"/>
+      <c r="AM163" s="4"/>
+      <c r="AN163" s="4"/>
+    </row>
+    <row r="164" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
+      <c r="R164" s="4"/>
+      <c r="S164" s="4"/>
+      <c r="T164" s="4"/>
+      <c r="U164" s="4"/>
+      <c r="V164" s="4"/>
+      <c r="W164" s="4"/>
+      <c r="X164" s="4"/>
+      <c r="Y164" s="4"/>
+      <c r="Z164" s="4"/>
+      <c r="AA164" s="4"/>
+      <c r="AB164" s="4"/>
+      <c r="AC164" s="4"/>
+      <c r="AD164" s="4"/>
+      <c r="AE164" s="4"/>
+      <c r="AF164" s="4"/>
+      <c r="AG164" s="4"/>
+      <c r="AH164" s="4"/>
+      <c r="AI164" s="4"/>
+      <c r="AJ164" s="4"/>
+      <c r="AK164" s="4"/>
+      <c r="AL164" s="4"/>
+      <c r="AM164" s="4"/>
+      <c r="AN164" s="4"/>
+    </row>
+    <row r="165" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
+      <c r="R165" s="4"/>
+      <c r="S165" s="4"/>
+      <c r="T165" s="4"/>
+      <c r="U165" s="4"/>
+      <c r="V165" s="4"/>
+      <c r="W165" s="4"/>
+      <c r="X165" s="4"/>
+      <c r="Y165" s="4"/>
+      <c r="Z165" s="4"/>
+      <c r="AA165" s="4"/>
+      <c r="AB165" s="4"/>
+      <c r="AC165" s="4"/>
+      <c r="AD165" s="4"/>
+      <c r="AE165" s="4"/>
+      <c r="AF165" s="4"/>
+      <c r="AG165" s="4"/>
+      <c r="AH165" s="4"/>
+      <c r="AI165" s="4"/>
+      <c r="AJ165" s="4"/>
+      <c r="AK165" s="4"/>
+      <c r="AL165" s="4"/>
+      <c r="AM165" s="4"/>
+      <c r="AN165" s="4"/>
+    </row>
+    <row r="166" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
+      <c r="R166" s="4"/>
+      <c r="S166" s="4"/>
+      <c r="T166" s="4"/>
+      <c r="U166" s="4"/>
+      <c r="V166" s="4"/>
+      <c r="W166" s="4"/>
+      <c r="X166" s="4"/>
+      <c r="Y166" s="4"/>
+      <c r="Z166" s="4"/>
+      <c r="AA166" s="4"/>
+      <c r="AB166" s="4"/>
+      <c r="AC166" s="4"/>
+      <c r="AD166" s="4"/>
+      <c r="AE166" s="4"/>
+      <c r="AF166" s="4"/>
+      <c r="AG166" s="4"/>
+      <c r="AH166" s="4"/>
+      <c r="AI166" s="4"/>
+      <c r="AJ166" s="4"/>
+      <c r="AK166" s="4"/>
+      <c r="AL166" s="4"/>
+      <c r="AM166" s="4"/>
+      <c r="AN166" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{2826E6F4-E59F-40B5-A92A-2488248F8BD2}"/>
